--- a/data/BracTestData.xlsx
+++ b/data/BracTestData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspacegit\version 2\bracappsep10\bracsepss\bracapp\bracapp26\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71108B84-4820-4028-90E2-893AEE9D1BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="184">
   <si>
     <t>Testcasename</t>
   </si>
@@ -76,7 +70,7 @@
     <t>uatuser3</t>
   </si>
   <si>
-    <t>Brac@2020</t>
+    <t>Brac@2023</t>
   </si>
   <si>
     <t>TC02</t>
@@ -154,7 +148,7 @@
     <t>uatuser1</t>
   </si>
   <si>
-    <t>Brac@2022</t>
+    <t>Brac@2024</t>
   </si>
   <si>
     <t>570310054566'</t>
@@ -196,12 +190,24 @@
     <t>TC29</t>
   </si>
   <si>
+    <t>Vivo</t>
+  </si>
+  <si>
+    <t>6.0'</t>
+  </si>
+  <si>
+    <t>ZDMFTK9LYSOZ99IV</t>
+  </si>
+  <si>
     <t>1520101862752001'</t>
   </si>
   <si>
     <t>1524201862527001'</t>
   </si>
   <si>
+    <t>10'</t>
+  </si>
+  <si>
     <t>Monthly Swap</t>
   </si>
   <si>
@@ -313,6 +319,75 @@
     <t>TC42</t>
   </si>
   <si>
+    <t>Walletname</t>
+  </si>
+  <si>
+    <t>TC60</t>
+  </si>
+  <si>
+    <t>bKash</t>
+  </si>
+  <si>
+    <t>01823074838'</t>
+  </si>
+  <si>
+    <t>Wallet Beneficiary</t>
+  </si>
+  <si>
+    <t>TC61</t>
+  </si>
+  <si>
+    <t>TC62</t>
+  </si>
+  <si>
+    <t>Cashbaba</t>
+  </si>
+  <si>
+    <t>01714116111'</t>
+  </si>
+  <si>
+    <t>TC63</t>
+  </si>
+  <si>
+    <t>TC64</t>
+  </si>
+  <si>
+    <t>iPay</t>
+  </si>
+  <si>
+    <t>01500000006'</t>
+  </si>
+  <si>
+    <t>TC65</t>
+  </si>
+  <si>
+    <t>TC66</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>017250562441'</t>
+  </si>
+  <si>
+    <t>TC67</t>
+  </si>
+  <si>
+    <t>testrock</t>
+  </si>
+  <si>
+    <t>TC68</t>
+  </si>
+  <si>
+    <t>Okwallet</t>
+  </si>
+  <si>
+    <t>01844527580'</t>
+  </si>
+  <si>
+    <t>TC69</t>
+  </si>
+  <si>
     <t>Billername</t>
   </si>
   <si>
@@ -394,6 +469,30 @@
     <t>TC117</t>
   </si>
   <si>
+    <t>bill no</t>
+  </si>
+  <si>
+    <t>TC118</t>
+  </si>
+  <si>
+    <t>BRAC University</t>
+  </si>
+  <si>
+    <t>00502984'</t>
+  </si>
+  <si>
+    <t>Brac subcat</t>
+  </si>
+  <si>
+    <t>Brac biller</t>
+  </si>
+  <si>
+    <t>TC119</t>
+  </si>
+  <si>
+    <t>Tuition Fees</t>
+  </si>
+  <si>
     <t>TC102</t>
   </si>
   <si>
@@ -436,140 +535,50 @@
     <t>Banglalink</t>
   </si>
   <si>
+    <t>01977581293'</t>
+  </si>
+  <si>
     <t>TC109</t>
   </si>
   <si>
-    <t>10'</t>
-  </si>
-  <si>
-    <t>01977581293'</t>
-  </si>
-  <si>
-    <t>TC118</t>
-  </si>
-  <si>
-    <t>BRAC University</t>
-  </si>
-  <si>
-    <t>00502984'</t>
-  </si>
-  <si>
-    <t>bill no</t>
-  </si>
-  <si>
-    <t>TC119</t>
-  </si>
-  <si>
-    <t>Brac subcat</t>
-  </si>
-  <si>
-    <t>Brac biller</t>
-  </si>
-  <si>
-    <t>Tuition Fees</t>
-  </si>
-  <si>
-    <t>Walletname</t>
-  </si>
-  <si>
-    <t>TC60</t>
-  </si>
-  <si>
-    <t>bKash</t>
-  </si>
-  <si>
-    <t>01823074838'</t>
-  </si>
-  <si>
-    <t>TC61</t>
-  </si>
-  <si>
     <t>Billerno</t>
   </si>
   <si>
+    <t>TC110</t>
+  </si>
+  <si>
+    <t>WASA</t>
+  </si>
+  <si>
+    <t>130500018977'</t>
+  </si>
+  <si>
+    <t>Subcat</t>
+  </si>
+  <si>
+    <t>form bill name</t>
+  </si>
+  <si>
     <t>TC111</t>
   </si>
   <si>
-    <t>WASA</t>
-  </si>
-  <si>
-    <t>TC110</t>
-  </si>
-  <si>
-    <t>130500018977'</t>
-  </si>
-  <si>
-    <t>Subcat</t>
-  </si>
-  <si>
-    <t>form bill name</t>
-  </si>
-  <si>
     <t>Utility</t>
   </si>
   <si>
     <t>100'</t>
-  </si>
-  <si>
-    <t>TC62</t>
-  </si>
-  <si>
-    <t>Cashbaba</t>
-  </si>
-  <si>
-    <t>01714116111'</t>
-  </si>
-  <si>
-    <t>TC63</t>
-  </si>
-  <si>
-    <t>TC64</t>
-  </si>
-  <si>
-    <t>iPay</t>
-  </si>
-  <si>
-    <t>01500000006'</t>
-  </si>
-  <si>
-    <t>TC65</t>
-  </si>
-  <si>
-    <t>TC66</t>
-  </si>
-  <si>
-    <t>Rocket</t>
-  </si>
-  <si>
-    <t>017250562441'</t>
-  </si>
-  <si>
-    <t>TC67</t>
-  </si>
-  <si>
-    <t>testrock</t>
-  </si>
-  <si>
-    <t>TC68</t>
-  </si>
-  <si>
-    <t>Okwallet</t>
-  </si>
-  <si>
-    <t>01844527580'</t>
-  </si>
-  <si>
-    <t>TC69</t>
-  </si>
-  <si>
-    <t>Wallet Beneficiary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +601,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -599,19 +609,149 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,8 +770,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -654,15 +980,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -671,34 +1236,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
@@ -718,7 +1326,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -726,9 +1334,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -986,39 +1591,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1"/>
-    <col min="2" max="2" width="49.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="51.4380952380952" customWidth="1"/>
+    <col min="2" max="2" width="49.8857142857143" customWidth="1"/>
+    <col min="3" max="3" width="27.8857142857143" customWidth="1"/>
+    <col min="4" max="4" width="22.552380952381" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="41" customWidth="1"/>
-    <col min="8" max="8" width="38.33203125" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" customWidth="1"/>
-    <col min="10" max="10" width="56.21875" customWidth="1"/>
-    <col min="11" max="11" width="31.77734375" customWidth="1"/>
-    <col min="12" max="12" width="64.109375" customWidth="1"/>
-    <col min="13" max="13" width="25.88671875" customWidth="1"/>
-    <col min="14" max="14" width="26.5546875" customWidth="1"/>
+    <col min="8" max="8" width="38.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="39.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="56.2190476190476" customWidth="1"/>
+    <col min="11" max="11" width="31.7809523809524" customWidth="1"/>
+    <col min="12" max="12" width="64.1047619047619" customWidth="1"/>
+    <col min="13" max="13" width="25.8857142857143" customWidth="1"/>
+    <col min="14" max="14" width="26.552380952381" customWidth="1"/>
     <col min="15" max="15" width="31" customWidth="1"/>
-    <col min="16" max="16" width="22.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1"/>
-    <col min="18" max="18" width="31.77734375" customWidth="1"/>
-    <col min="19" max="19" width="36.109375" customWidth="1"/>
+    <col min="16" max="16" width="22.552380952381" customWidth="1"/>
+    <col min="17" max="17" width="17.3333333333333" customWidth="1"/>
+    <col min="18" max="18" width="31.7809523809524" customWidth="1"/>
+    <col min="19" max="19" width="36.1047619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -3341,7 +3946,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="8"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -3393,16 +3998,16 @@
       <c r="E97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H97" s="8" t="s">
+      <c r="H97" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I97" s="8" t="s">
+      <c r="I97" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J97" s="1" t="s">
@@ -3420,7 +4025,7 @@
       <c r="N97" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O97" s="8" t="s">
+      <c r="O97" s="9" t="s">
         <v>56</v>
       </c>
       <c r="P97" s="1" t="s">
@@ -3435,13 +4040,13 @@
         <v>57</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>16</v>
@@ -3452,32 +4057,32 @@
       <c r="G98" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H98" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>139</v>
+      <c r="H98" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L98" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L98" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O98" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="M98" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="N98" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O98" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P98" s="12" t="s">
-        <v>64</v>
+      <c r="P98" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
@@ -3495,17 +4100,17 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
       <c r="O99" s="7"/>
-      <c r="P99" s="12"/>
+      <c r="P99" s="11"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -3527,13 +4132,13 @@
         <v>6</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>51</v>
@@ -3560,17 +4165,17 @@
       <c r="S100" s="1"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="8" t="s">
-        <v>67</v>
+      <c r="A101" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>16</v>
@@ -3582,34 +4187,34 @@
         <v>18</v>
       </c>
       <c r="H101" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M101" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N101" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q101" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="I101" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J101" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K101" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M101" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="N101" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -3636,7 +4241,7 @@
       <c r="S102" s="1"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="8"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="2"/>
@@ -3644,12 +4249,12 @@
       <c r="F103" s="3"/>
       <c r="G103" s="5"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
-      <c r="N103" s="11"/>
+      <c r="N103" s="12"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -3657,7 +4262,7 @@
       <c r="S103" s="1"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -3679,7 +4284,7 @@
         <v>6</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>50</v>
@@ -3697,7 +4302,7 @@
         <v>53</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>55</v>
@@ -3710,17 +4315,17 @@
       <c r="S104" s="1"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="8" t="s">
-        <v>72</v>
+      <c r="A105" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>16</v>
@@ -3735,35 +4340,35 @@
         <v>30</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J105" s="10" t="s">
-        <v>139</v>
+        <v>77</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M105" s="11" t="s">
-        <v>61</v>
+      <c r="M105" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="8"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
       <c r="D106" s="2"/>
@@ -3774,7 +4379,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
-      <c r="L106" s="11"/>
+      <c r="L106" s="12"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
@@ -3784,7 +4389,7 @@
       <c r="S106" s="1"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -3806,7 +4411,7 @@
         <v>6</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>50</v>
@@ -3824,7 +4429,7 @@
         <v>53</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>55</v>
@@ -3837,17 +4442,17 @@
       <c r="S107" s="1"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="8" t="s">
-        <v>75</v>
+      <c r="A108" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>16</v>
@@ -3862,35 +4467,35 @@
         <v>37</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J108" s="10" t="s">
-        <v>139</v>
+        <v>77</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="11" t="s">
-        <v>61</v>
+      <c r="M108" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="8"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="2"/>
       <c r="C109" s="3"/>
       <c r="D109" s="2"/>
@@ -3901,7 +4506,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
-      <c r="L109" s="11"/>
+      <c r="L109" s="12"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -3911,7 +4516,7 @@
       <c r="S109" s="1"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -3936,7 +4541,7 @@
         <v>50</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>51</v>
@@ -3951,7 +4556,7 @@
         <v>53</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O110" s="1" t="s">
         <v>55</v>
@@ -3964,17 +4569,17 @@
       <c r="S110" s="1"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="8" t="s">
-        <v>77</v>
+      <c r="A111" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>16</v>
@@ -3986,38 +4591,38 @@
         <v>18</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J111" s="10" t="s">
-        <v>139</v>
+      <c r="J111" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M111" s="11" t="s">
-        <v>61</v>
+      <c r="M111" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
     </row>
     <row r="112" spans="1:19">
-      <c r="A112" s="8"/>
+      <c r="A112" s="9"/>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
       <c r="D112" s="2"/>
@@ -4030,7 +4635,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
-      <c r="N112" s="11"/>
+      <c r="N112" s="12"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
@@ -4038,7 +4643,7 @@
       <c r="S112" s="1"/>
     </row>
     <row r="113" spans="1:19">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -4063,7 +4668,7 @@
         <v>50</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>51</v>
@@ -4078,7 +4683,7 @@
         <v>53</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O113" s="1" t="s">
         <v>55</v>
@@ -4091,17 +4696,17 @@
       <c r="S113" s="1"/>
     </row>
     <row r="114" spans="1:19">
-      <c r="A114" s="8" t="s">
-        <v>79</v>
+      <c r="A114" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>16</v>
@@ -4113,31 +4718,31 @@
         <v>18</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J114" s="10" t="s">
-        <v>139</v>
+      <c r="J114" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M114" s="11" t="s">
-        <v>61</v>
+      <c r="M114" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
@@ -4165,7 +4770,7 @@
       <c r="S115" s="1"/>
     </row>
     <row r="116" spans="1:19">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -4180,16 +4785,16 @@
       <c r="E116" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G116" s="8" t="s">
+      <c r="G116" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H116" s="8" t="s">
+      <c r="H116" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I116" s="8" t="s">
+      <c r="I116" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J116" s="1" t="s">
@@ -4207,7 +4812,7 @@
       <c r="N116" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O116" s="8" t="s">
+      <c r="O116" s="9" t="s">
         <v>56</v>
       </c>
       <c r="P116" s="1" t="s">
@@ -4218,17 +4823,17 @@
       <c r="S116" s="1"/>
     </row>
     <row r="117" spans="1:19">
-      <c r="A117" s="8" t="s">
-        <v>80</v>
+      <c r="A117" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>16</v>
@@ -4239,60 +4844,60 @@
       <c r="G117" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H117" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I117" s="8" t="s">
-        <v>59</v>
+      <c r="H117" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L117" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M117" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N117" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O117" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P117" s="12" t="s">
         <v>64</v>
+      </c>
+      <c r="L117" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M117" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O117" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P117" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
     </row>
     <row r="118" spans="1:19">
-      <c r="A118" s="8"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
-      <c r="O118" s="8"/>
+      <c r="O118" s="9"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
     </row>
     <row r="119" spans="1:19">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -4307,16 +4912,16 @@
       <c r="E119" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="G119" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H119" s="8" t="s">
+      <c r="H119" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I119" s="8" t="s">
+      <c r="I119" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J119" s="1" t="s">
@@ -4334,7 +4939,7 @@
       <c r="N119" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O119" s="8" t="s">
+      <c r="O119" s="9" t="s">
         <v>56</v>
       </c>
       <c r="P119" s="1" t="s">
@@ -4345,17 +4950,17 @@
       <c r="S119" s="1"/>
     </row>
     <row r="120" spans="1:19">
-      <c r="A120" s="8" t="s">
-        <v>83</v>
+      <c r="A120" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>16</v>
@@ -4366,60 +4971,60 @@
       <c r="G120" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H120" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>59</v>
+      <c r="H120" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L120" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M120" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N120" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O120" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P120" s="12" t="s">
         <v>64</v>
+      </c>
+      <c r="L120" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O120" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P120" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
     </row>
     <row r="121" spans="1:19">
-      <c r="A121" s="8"/>
+      <c r="A121" s="9"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
-      <c r="O121" s="8"/>
+      <c r="O121" s="9"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
     </row>
     <row r="122" spans="1:19">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -4434,16 +5039,16 @@
       <c r="E122" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F122" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G122" s="8" t="s">
+      <c r="G122" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H122" s="8" t="s">
+      <c r="H122" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I122" s="8" t="s">
+      <c r="I122" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J122" s="1" t="s">
@@ -4461,7 +5066,7 @@
       <c r="N122" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O122" s="8" t="s">
+      <c r="O122" s="9" t="s">
         <v>56</v>
       </c>
       <c r="P122" s="1" t="s">
@@ -4472,17 +5077,17 @@
       <c r="S122" s="1"/>
     </row>
     <row r="123" spans="1:19">
-      <c r="A123" s="8" t="s">
-        <v>85</v>
+      <c r="A123" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>16</v>
@@ -4493,60 +5098,60 @@
       <c r="G123" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H123" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I123" s="8" t="s">
-        <v>59</v>
+      <c r="H123" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L123" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M123" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N123" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O123" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P123" s="12" t="s">
         <v>64</v>
+      </c>
+      <c r="L123" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O123" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P123" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
     </row>
     <row r="124" spans="1:19">
-      <c r="A124" s="8"/>
+      <c r="A124" s="9"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
-      <c r="O124" s="8"/>
+      <c r="O124" s="9"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
     </row>
     <row r="125" spans="1:19">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -4561,16 +5166,16 @@
       <c r="E125" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F125" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G125" s="8" t="s">
+      <c r="G125" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H125" s="8" t="s">
+      <c r="H125" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I125" s="8" t="s">
+      <c r="I125" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J125" s="1" t="s">
@@ -4588,7 +5193,7 @@
       <c r="N125" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O125" s="8" t="s">
+      <c r="O125" s="9" t="s">
         <v>56</v>
       </c>
       <c r="P125" s="1" t="s">
@@ -4599,17 +5204,17 @@
       <c r="S125" s="1"/>
     </row>
     <row r="126" spans="1:19">
-      <c r="A126" s="8" t="s">
-        <v>86</v>
+      <c r="A126" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>16</v>
@@ -4620,60 +5225,60 @@
       <c r="G126" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H126" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>59</v>
+      <c r="H126" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L126" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M126" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N126" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O126" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P126" s="12" t="s">
         <v>64</v>
+      </c>
+      <c r="L126" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M126" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N126" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O126" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P126" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
     </row>
     <row r="127" spans="1:19">
-      <c r="A127" s="8"/>
+      <c r="A127" s="9"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
-      <c r="O127" s="8"/>
+      <c r="O127" s="9"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
     </row>
     <row r="128" spans="1:19">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -4688,16 +5293,16 @@
       <c r="E128" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G128" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H128" s="8" t="s">
+      <c r="H128" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I128" s="8" t="s">
+      <c r="I128" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J128" s="1" t="s">
@@ -4715,34 +5320,34 @@
       <c r="N128" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O128" s="8" t="s">
+      <c r="O128" s="9" t="s">
         <v>56</v>
       </c>
       <c r="P128" s="1" t="s">
         <v>27</v>
       </c>
       <c r="Q128" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R128" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="S128" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:19">
-      <c r="A129" s="8" t="s">
-        <v>90</v>
+      <c r="A129" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>16</v>
@@ -4753,66 +5358,66 @@
       <c r="G129" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H129" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>59</v>
+      <c r="H129" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L129" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M129" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N129" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O129" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P129" s="12" t="s">
         <v>64</v>
       </c>
+      <c r="L129" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M129" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N129" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O129" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P129" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="Q129" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130" spans="1:19">
-      <c r="A130" s="8"/>
+      <c r="A130" s="9"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
-      <c r="O130" s="8"/>
+      <c r="O130" s="9"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
     </row>
     <row r="131" spans="1:19">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -4827,16 +5432,16 @@
       <c r="E131" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="F131" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G131" s="8" t="s">
+      <c r="G131" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H131" s="8" t="s">
+      <c r="H131" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I131" s="8" t="s">
+      <c r="I131" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J131" s="1" t="s">
@@ -4854,34 +5459,34 @@
       <c r="N131" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O131" s="8" t="s">
+      <c r="O131" s="9" t="s">
         <v>56</v>
       </c>
       <c r="P131" s="1" t="s">
         <v>27</v>
       </c>
       <c r="Q131" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R131" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="S131" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:19">
-      <c r="A132" s="8" t="s">
-        <v>94</v>
+      <c r="A132" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>16</v>
@@ -4892,66 +5497,66 @@
       <c r="G132" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H132" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>59</v>
+      <c r="H132" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L132" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M132" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N132" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O132" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P132" s="12" t="s">
         <v>64</v>
       </c>
+      <c r="L132" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M132" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N132" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O132" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P132" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="Q132" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:19">
-      <c r="A133" s="8"/>
+      <c r="A133" s="9"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
-      <c r="O133" s="8"/>
+      <c r="O133" s="9"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
     </row>
     <row r="134" spans="1:19">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -4966,16 +5571,16 @@
       <c r="E134" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F134" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G134" s="8" t="s">
+      <c r="G134" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H134" s="8" t="s">
+      <c r="H134" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I134" s="8" t="s">
+      <c r="I134" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J134" s="1" t="s">
@@ -4993,34 +5598,34 @@
       <c r="N134" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O134" s="8" t="s">
+      <c r="O134" s="9" t="s">
         <v>56</v>
       </c>
       <c r="P134" s="1" t="s">
         <v>27</v>
       </c>
       <c r="Q134" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R134" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="S134" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="135" spans="1:19">
-      <c r="A135" s="8" t="s">
-        <v>95</v>
+      <c r="A135" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>16</v>
@@ -5031,66 +5636,66 @@
       <c r="G135" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H135" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I135" s="8" t="s">
-        <v>59</v>
+      <c r="H135" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L135" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M135" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N135" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O135" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P135" s="12" t="s">
         <v>64</v>
       </c>
+      <c r="L135" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M135" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N135" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O135" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P135" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="Q135" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="R135" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136" spans="1:19">
-      <c r="A136" s="8"/>
+      <c r="A136" s="9"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
-      <c r="O136" s="8"/>
+      <c r="O136" s="9"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
     </row>
     <row r="137" spans="1:19">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -5105,16 +5710,16 @@
       <c r="E137" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F137" s="8" t="s">
+      <c r="F137" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G137" s="8" t="s">
+      <c r="G137" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H137" s="8" t="s">
+      <c r="H137" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I137" s="8" t="s">
+      <c r="I137" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J137" s="1" t="s">
@@ -5127,39 +5732,39 @@
         <v>53</v>
       </c>
       <c r="M137" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N137" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O137" s="8" t="s">
+      <c r="O137" s="9" t="s">
         <v>56</v>
       </c>
       <c r="P137" s="1" t="s">
         <v>27</v>
       </c>
       <c r="Q137" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R137" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="S137" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138" spans="1:19">
-      <c r="A138" s="8" t="s">
-        <v>96</v>
+      <c r="A138" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>16</v>
@@ -5170,60 +5775,60 @@
       <c r="G138" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H138" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I138" s="8" t="s">
-        <v>59</v>
+      <c r="H138" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L138" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M138" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N138" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O138" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P138" s="12" t="s">
         <v>64</v>
       </c>
+      <c r="L138" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M138" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N138" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O138" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P138" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="Q138" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139" spans="1:19">
-      <c r="A139" s="8"/>
+      <c r="A139" s="9"/>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
       <c r="D139" s="2"/>
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
       <c r="G139" s="5"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
-      <c r="L139" s="11"/>
-      <c r="M139" s="12"/>
-      <c r="N139" s="12"/>
-      <c r="O139" s="8"/>
-      <c r="P139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="11"/>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
@@ -5251,10 +5856,10 @@
         <v>6</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>50</v>
@@ -5269,12 +5874,12 @@
         <v>53</v>
       </c>
       <c r="N140" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O140" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P140" s="8" t="s">
+      <c r="P140" s="9" t="s">
         <v>56</v>
       </c>
       <c r="Q140" s="1" t="s">
@@ -5285,16 +5890,16 @@
     </row>
     <row r="141" spans="1:19">
       <c r="A141" s="13" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>16</v>
@@ -5306,34 +5911,34 @@
         <v>18</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J141" s="8" t="s">
-        <v>59</v>
+        <v>104</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M141" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N141" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O141" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="M141" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N141" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O141" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q141" s="12" t="s">
-        <v>64</v>
+        <v>104</v>
+      </c>
+      <c r="Q141" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
@@ -5382,7 +5987,7 @@
         <v>6</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>50</v>
@@ -5400,12 +6005,12 @@
         <v>53</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O143" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P143" s="8" t="s">
+      <c r="P143" s="9" t="s">
         <v>56</v>
       </c>
       <c r="Q143" s="1" t="s">
@@ -5416,16 +6021,16 @@
     </row>
     <row r="144" spans="1:19">
       <c r="A144" s="13" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>16</v>
@@ -5437,34 +6042,34 @@
         <v>18</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I144" s="8" t="s">
-        <v>59</v>
+        <v>103</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M144" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N144" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O144" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="M144" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N144" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O144" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q144" s="12" t="s">
-        <v>64</v>
+        <v>104</v>
+      </c>
+      <c r="Q144" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
@@ -5475,8 +6080,8 @@
       <c r="C145" s="3"/>
       <c r="D145" s="2"/>
       <c r="E145" s="4"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="16"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="15"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -5496,8 +6101,8 @@
       <c r="C146" s="3"/>
       <c r="D146" s="2"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="16"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="15"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -5527,17 +6132,17 @@
       <c r="E147" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F147" s="15" t="s">
+      <c r="F147" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G147" s="16" t="s">
+      <c r="G147" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>50</v>
@@ -5552,12 +6157,12 @@
         <v>53</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O147" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P147" s="8" t="s">
+      <c r="P147" s="9" t="s">
         <v>56</v>
       </c>
       <c r="Q147" s="1" t="s">
@@ -5568,16 +6173,16 @@
     </row>
     <row r="148" spans="1:19">
       <c r="A148" s="13" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>16</v>
@@ -5589,34 +6194,34 @@
         <v>18</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J148" s="8" t="s">
-        <v>59</v>
+        <v>109</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M148" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N148" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O148" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="M148" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N148" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O148" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q148" s="12" t="s">
-        <v>64</v>
+        <v>109</v>
+      </c>
+      <c r="Q148" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
@@ -5627,8 +6232,8 @@
       <c r="C149" s="3"/>
       <c r="D149" s="2"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="16"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="15"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -5658,14 +6263,14 @@
       <c r="E150" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F150" s="15" t="s">
+      <c r="F150" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G150" s="16" t="s">
+      <c r="G150" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>50</v>
@@ -5683,12 +6288,12 @@
         <v>53</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O150" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P150" s="8" t="s">
+      <c r="P150" s="9" t="s">
         <v>56</v>
       </c>
       <c r="Q150" s="1" t="s">
@@ -5699,16 +6304,16 @@
     </row>
     <row r="151" spans="1:19">
       <c r="A151" s="13" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>16</v>
@@ -5720,34 +6325,34 @@
         <v>18</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I151" s="8" t="s">
-        <v>59</v>
+        <v>108</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M151" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N151" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O151" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="M151" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N151" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O151" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q151" s="12" t="s">
-        <v>64</v>
+        <v>109</v>
+      </c>
+      <c r="Q151" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
@@ -5758,8 +6363,8 @@
       <c r="C152" s="3"/>
       <c r="D152" s="2"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="16"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="15"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -5789,17 +6394,17 @@
       <c r="E153" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F153" s="15" t="s">
+      <c r="F153" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G153" s="16" t="s">
+      <c r="G153" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>50</v>
@@ -5814,12 +6419,12 @@
         <v>53</v>
       </c>
       <c r="N153" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O153" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P153" s="8" t="s">
+      <c r="P153" s="9" t="s">
         <v>56</v>
       </c>
       <c r="Q153" s="1" t="s">
@@ -5830,16 +6435,16 @@
     </row>
     <row r="154" spans="1:19">
       <c r="A154" s="13" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>16</v>
@@ -5851,34 +6456,34 @@
         <v>18</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J154" s="8" t="s">
-        <v>59</v>
+        <v>113</v>
+      </c>
+      <c r="J154" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M154" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N154" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O154" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="M154" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N154" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O154" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q154" s="12" t="s">
-        <v>64</v>
+        <v>113</v>
+      </c>
+      <c r="Q154" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
@@ -5889,8 +6494,8 @@
       <c r="C155" s="3"/>
       <c r="D155" s="2"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="16"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="15"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -5920,14 +6525,14 @@
       <c r="E156" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F156" s="15" t="s">
+      <c r="F156" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G156" s="16" t="s">
+      <c r="G156" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>50</v>
@@ -5945,12 +6550,12 @@
         <v>53</v>
       </c>
       <c r="N156" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O156" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P156" s="8" t="s">
+      <c r="P156" s="9" t="s">
         <v>56</v>
       </c>
       <c r="Q156" s="1" t="s">
@@ -5961,16 +6566,16 @@
     </row>
     <row r="157" spans="1:19">
       <c r="A157" s="13" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>16</v>
@@ -5982,34 +6587,34 @@
         <v>18</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I157" s="8" t="s">
-        <v>59</v>
+        <v>112</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M157" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N157" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O157" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="M157" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N157" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O157" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P157" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q157" s="12" t="s">
-        <v>64</v>
+        <v>113</v>
+      </c>
+      <c r="Q157" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
@@ -6020,8 +6625,8 @@
       <c r="C158" s="3"/>
       <c r="D158" s="2"/>
       <c r="E158" s="4"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="16"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="15"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -6051,17 +6656,17 @@
       <c r="E159" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F159" s="15" t="s">
+      <c r="F159" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G159" s="16" t="s">
+      <c r="G159" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>50</v>
@@ -6076,12 +6681,12 @@
         <v>53</v>
       </c>
       <c r="N159" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O159" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P159" s="8" t="s">
+      <c r="P159" s="9" t="s">
         <v>56</v>
       </c>
       <c r="Q159" s="1" t="s">
@@ -6092,16 +6697,16 @@
     </row>
     <row r="160" spans="1:19">
       <c r="A160" s="13" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>16</v>
@@ -6113,34 +6718,34 @@
         <v>18</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J160" s="8" t="s">
-        <v>59</v>
+        <v>117</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M160" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N160" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O160" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="M160" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N160" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O160" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q160" s="12" t="s">
-        <v>64</v>
+        <v>117</v>
+      </c>
+      <c r="Q160" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
@@ -6151,8 +6756,8 @@
       <c r="C161" s="3"/>
       <c r="D161" s="2"/>
       <c r="E161" s="4"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="16"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="15"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -6177,14 +6782,14 @@
       <c r="E162" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F162" s="15" t="s">
+      <c r="F162" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G162" s="16" t="s">
+      <c r="G162" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>50</v>
@@ -6193,7 +6798,7 @@
         <v>24</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>51</v>
@@ -6205,12 +6810,12 @@
         <v>53</v>
       </c>
       <c r="O162" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P162" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q162" s="8" t="s">
+      <c r="Q162" s="9" t="s">
         <v>56</v>
       </c>
       <c r="R162" s="1" t="s">
@@ -6220,16 +6825,16 @@
     </row>
     <row r="163" spans="1:19">
       <c r="A163" s="13" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>16</v>
@@ -6241,37 +6846,37 @@
         <v>18</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I163" s="8" t="s">
-        <v>59</v>
+        <v>116</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N163" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="O163" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="P163" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="N163" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O163" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P163" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="Q163" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="R163" s="12" t="s">
-        <v>64</v>
+        <v>117</v>
+      </c>
+      <c r="R163" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="S163" s="1"/>
     </row>
@@ -6291,17 +6896,17 @@
       <c r="E164" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F164" s="15" t="s">
+      <c r="F164" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G164" s="16" t="s">
+      <c r="G164" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>50</v>
@@ -6316,12 +6921,12 @@
         <v>53</v>
       </c>
       <c r="N164" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O164" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P164" s="8" t="s">
+      <c r="P164" s="9" t="s">
         <v>56</v>
       </c>
       <c r="Q164" s="1" t="s">
@@ -6331,16 +6936,16 @@
     </row>
     <row r="165" spans="1:19">
       <c r="A165" s="13" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>16</v>
@@ -6352,34 +6957,34 @@
         <v>18</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J165" s="8" t="s">
-        <v>59</v>
+        <v>122</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M165" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N165" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O165" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="M165" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N165" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O165" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q165" s="12" t="s">
-        <v>64</v>
+        <v>122</v>
+      </c>
+      <c r="Q165" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="S165" s="1"/>
     </row>
@@ -6389,8 +6994,8 @@
       <c r="C166" s="3"/>
       <c r="D166" s="2"/>
       <c r="E166" s="4"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="16"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="15"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -6420,14 +7025,14 @@
       <c r="E167" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F167" s="15" t="s">
+      <c r="F167" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G167" s="16" t="s">
+      <c r="G167" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>50</v>
@@ -6445,12 +7050,12 @@
         <v>53</v>
       </c>
       <c r="N167" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O167" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P167" s="8" t="s">
+      <c r="P167" s="9" t="s">
         <v>56</v>
       </c>
       <c r="Q167" s="1" t="s">
@@ -6461,16 +7066,16 @@
     </row>
     <row r="168" spans="1:19">
       <c r="A168" s="13" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>16</v>
@@ -6482,34 +7087,34 @@
         <v>18</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I168" s="8" t="s">
-        <v>59</v>
+        <v>121</v>
+      </c>
+      <c r="I168" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M168" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N168" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O168" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="M168" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N168" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O168" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q168" s="12" t="s">
-        <v>64</v>
+        <v>122</v>
+      </c>
+      <c r="Q168" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
@@ -6520,8 +7125,8 @@
       <c r="C169" s="3"/>
       <c r="D169" s="2"/>
       <c r="E169" s="4"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="16"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="15"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -6558,10 +7163,10 @@
         <v>6</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>50</v>
@@ -6570,13 +7175,13 @@
         <v>51</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M170" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N170" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O170" s="1" t="s">
         <v>55</v>
@@ -6592,55 +7197,55 @@
     </row>
     <row r="171" spans="1:19">
       <c r="A171" s="13" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F171" s="15" t="s">
+      <c r="F171" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G171" s="16" t="s">
+      <c r="G171" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K171" s="10" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="K171" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M171" s="19" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="M171" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="N171" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O171" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O171" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P171" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q171" s="12" t="s">
-        <v>64</v>
+        <v>129</v>
+      </c>
+      <c r="Q171" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
@@ -6689,25 +7294,25 @@
         <v>6</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J173" s="6" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M173" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>55</v>
@@ -6723,55 +7328,55 @@
     </row>
     <row r="174" spans="1:19">
       <c r="A174" s="13" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F174" s="15" t="s">
+      <c r="F174" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G174" s="16" t="s">
+      <c r="G174" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J174" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K174" s="10" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="J174" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K174" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M174" s="18" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="M174" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="N174" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O174" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O174" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q174" s="12" t="s">
-        <v>64</v>
+        <v>129</v>
+      </c>
+      <c r="Q174" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
@@ -6782,18 +7387,18 @@
       <c r="C175" s="3"/>
       <c r="D175" s="2"/>
       <c r="E175" s="4"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="16"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="15"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
-      <c r="M175" s="11"/>
+      <c r="M175" s="12"/>
       <c r="N175" s="7"/>
-      <c r="O175" s="12"/>
+      <c r="O175" s="11"/>
       <c r="P175" s="1"/>
-      <c r="Q175" s="12"/>
+      <c r="Q175" s="11"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
     </row>
@@ -6820,10 +7425,10 @@
         <v>6</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>50</v>
@@ -6832,13 +7437,13 @@
         <v>51</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="M176" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>55</v>
@@ -6854,55 +7459,55 @@
     </row>
     <row r="177" spans="1:19">
       <c r="A177" s="13" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F177" s="15" t="s">
+      <c r="F177" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G177" s="16" t="s">
+      <c r="G177" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L177" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M177" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="N177" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O177" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P177" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L177" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M177" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N177" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O177" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="P177" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q177" s="12" t="s">
-        <v>64</v>
+      <c r="Q177" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
@@ -6930,25 +7535,25 @@
         <v>6</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="M178" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N178" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>55</v>
@@ -6964,55 +7569,55 @@
     </row>
     <row r="179" spans="1:19">
       <c r="A179" s="13" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F179" s="15" t="s">
+      <c r="F179" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G179" s="16" t="s">
+      <c r="G179" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L179" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M179" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="N179" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O179" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P179" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L179" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M179" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N179" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O179" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="P179" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q179" s="12" t="s">
-        <v>64</v>
+      <c r="Q179" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
@@ -7040,10 +7645,10 @@
         <v>6</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>50</v>
@@ -7052,13 +7657,13 @@
         <v>51</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="M180" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N180" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>55</v>
@@ -7074,55 +7679,55 @@
     </row>
     <row r="181" spans="1:19">
       <c r="A181" s="1" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F181" s="15" t="s">
+      <c r="F181" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G181" s="16" t="s">
+      <c r="G181" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L181" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M181" s="19" t="s">
-        <v>105</v>
+        <v>140</v>
+      </c>
+      <c r="M181" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="N181" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O181" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O181" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q181" s="12" t="s">
-        <v>64</v>
+        <v>145</v>
+      </c>
+      <c r="Q181" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
@@ -7171,25 +7776,25 @@
         <v>6</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="M183" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>55</v>
@@ -7205,55 +7810,55 @@
     </row>
     <row r="184" spans="1:19">
       <c r="A184" s="1" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F184" s="15" t="s">
+      <c r="F184" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G184" s="16" t="s">
+      <c r="G184" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L184" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M184" s="19" t="s">
-        <v>105</v>
+        <v>140</v>
+      </c>
+      <c r="M184" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="N184" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O184" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O184" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q184" s="12" t="s">
-        <v>64</v>
+        <v>145</v>
+      </c>
+      <c r="Q184" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
@@ -7302,10 +7907,10 @@
         <v>6</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>50</v>
@@ -7314,13 +7919,13 @@
         <v>51</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="M186" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N186" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>55</v>
@@ -7336,55 +7941,55 @@
     </row>
     <row r="187" spans="1:19">
       <c r="A187" s="1" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F187" s="15" t="s">
+      <c r="F187" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G187" s="16" t="s">
+      <c r="G187" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L187" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M187" s="19" t="s">
-        <v>105</v>
+        <v>140</v>
+      </c>
+      <c r="M187" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="N187" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O187" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O187" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q187" s="12" t="s">
-        <v>64</v>
+        <v>149</v>
+      </c>
+      <c r="Q187" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
@@ -7433,25 +8038,25 @@
         <v>6</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="K189" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="M189" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N189" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>55</v>
@@ -7467,55 +8072,55 @@
     </row>
     <row r="190" spans="1:19">
       <c r="A190" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F190" s="15" t="s">
+      <c r="F190" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G190" s="16" t="s">
+      <c r="G190" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L190" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M190" s="19" t="s">
-        <v>105</v>
+        <v>140</v>
+      </c>
+      <c r="M190" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="N190" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O190" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O190" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q190" s="12" t="s">
-        <v>64</v>
+        <v>149</v>
+      </c>
+      <c r="Q190" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
@@ -7526,18 +8131,18 @@
       <c r="C191" s="3"/>
       <c r="D191" s="2"/>
       <c r="E191" s="4"/>
-      <c r="F191" s="15"/>
-      <c r="G191" s="16"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="15"/>
       <c r="H191" s="7"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="7"/>
-      <c r="M191" s="19"/>
+      <c r="M191" s="16"/>
       <c r="N191" s="7"/>
-      <c r="O191" s="12"/>
+      <c r="O191" s="11"/>
       <c r="P191" s="1"/>
-      <c r="Q191" s="12"/>
+      <c r="Q191" s="11"/>
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
     </row>
@@ -7564,10 +8169,10 @@
         <v>6</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>50</v>
@@ -7576,13 +8181,13 @@
         <v>51</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="M192" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>55</v>
@@ -7598,55 +8203,55 @@
     </row>
     <row r="193" spans="1:19">
       <c r="A193" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F193" s="15" t="s">
+      <c r="F193" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G193" s="16" t="s">
+      <c r="G193" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L193" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M193" s="19" t="s">
-        <v>105</v>
+        <v>140</v>
+      </c>
+      <c r="M193" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="N193" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O193" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O193" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q193" s="12" t="s">
-        <v>64</v>
+        <v>154</v>
+      </c>
+      <c r="Q193" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
@@ -7657,23 +8262,23 @@
       <c r="C194" s="3"/>
       <c r="D194" s="2"/>
       <c r="E194" s="4"/>
-      <c r="F194" s="15"/>
-      <c r="G194" s="16"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="15"/>
       <c r="H194" s="7"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="7"/>
-      <c r="M194" s="19"/>
+      <c r="M194" s="16"/>
       <c r="N194" s="7"/>
-      <c r="O194" s="12"/>
+      <c r="O194" s="11"/>
       <c r="P194" s="1"/>
-      <c r="Q194" s="12"/>
+      <c r="Q194" s="11"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
     </row>
     <row r="195" spans="1:19">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -7695,25 +8300,25 @@
         <v>6</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J195" s="6" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="M195" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N195" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>55</v>
@@ -7725,69 +8330,69 @@
         <v>27</v>
       </c>
       <c r="R195" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="S195" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="196" spans="1:19">
-      <c r="A196" s="8" t="s">
-        <v>145</v>
+      <c r="A196" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F196" s="15" t="s">
+      <c r="F196" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G196" s="16" t="s">
+      <c r="G196" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="L196" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M196" s="19" t="s">
-        <v>105</v>
+        <v>140</v>
+      </c>
+      <c r="M196" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="N196" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O196" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O196" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q196" s="12" t="s">
-        <v>64</v>
+        <v>154</v>
+      </c>
+      <c r="Q196" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R196" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="S196" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="197" spans="1:19">
@@ -7834,10 +8439,10 @@
         <v>6</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>50</v>
@@ -7846,13 +8451,13 @@
         <v>51</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M198" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N198" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>55</v>
@@ -7868,55 +8473,55 @@
     </row>
     <row r="199" spans="1:19">
       <c r="A199" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B199" s="17" t="s">
-        <v>13</v>
+        <v>159</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D199" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F199" s="15" t="s">
+      <c r="F199" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G199" s="16" t="s">
+      <c r="G199" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K199" s="10" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="K199" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M199" s="19" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="M199" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="N199" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O199" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O199" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q199" s="12" t="s">
-        <v>64</v>
+        <v>161</v>
+      </c>
+      <c r="Q199" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
@@ -7965,25 +8570,25 @@
         <v>6</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="K201" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M201" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N201" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>55</v>
@@ -7999,55 +8604,55 @@
     </row>
     <row r="202" spans="1:19">
       <c r="A202" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B202" s="17" t="s">
-        <v>13</v>
+        <v>162</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D202" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F202" s="15" t="s">
+      <c r="F202" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G202" s="16" t="s">
+      <c r="G202" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K202" s="10" t="s">
-        <v>139</v>
+        <v>161</v>
+      </c>
+      <c r="K202" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M202" s="19" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="M202" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="N202" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O202" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O202" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q202" s="12" t="s">
-        <v>64</v>
+        <v>161</v>
+      </c>
+      <c r="Q202" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
@@ -8096,10 +8701,10 @@
         <v>6</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>50</v>
@@ -8108,13 +8713,13 @@
         <v>51</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M204" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N204" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>55</v>
@@ -8130,55 +8735,55 @@
     </row>
     <row r="205" spans="1:19">
       <c r="A205" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B205" s="17" t="s">
-        <v>13</v>
+        <v>163</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D205" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F205" s="15" t="s">
+      <c r="F205" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G205" s="16" t="s">
+      <c r="G205" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="I205" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J205" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J205" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K205" s="10" t="s">
-        <v>139</v>
+      <c r="K205" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M205" s="19" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="M205" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="N205" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O205" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O205" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q205" s="12" t="s">
-        <v>64</v>
+        <v>165</v>
+      </c>
+      <c r="Q205" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
@@ -8227,25 +8832,25 @@
         <v>6</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I207" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M207" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N207" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>55</v>
@@ -8261,55 +8866,55 @@
     </row>
     <row r="208" spans="1:19">
       <c r="A208" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B208" s="17" t="s">
-        <v>13</v>
+        <v>166</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D208" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F208" s="15" t="s">
+      <c r="F208" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G208" s="16" t="s">
+      <c r="G208" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K208" s="10" t="s">
-        <v>139</v>
+        <v>165</v>
+      </c>
+      <c r="K208" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M208" s="19" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="M208" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="N208" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O208" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O208" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q208" s="12" t="s">
-        <v>64</v>
+        <v>165</v>
+      </c>
+      <c r="Q208" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
@@ -8358,10 +8963,10 @@
         <v>6</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>50</v>
@@ -8370,13 +8975,13 @@
         <v>51</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M210" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N210" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>55</v>
@@ -8392,55 +8997,55 @@
     </row>
     <row r="211" spans="1:19">
       <c r="A211" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B211" s="17" t="s">
-        <v>13</v>
+        <v>167</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D211" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F211" s="15" t="s">
+      <c r="F211" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G211" s="16" t="s">
+      <c r="G211" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H211" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M211" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="N211" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I211" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J211" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K211" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L211" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M211" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N211" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O211" s="12" t="s">
-        <v>63</v>
+      <c r="O211" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P211" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q211" s="12" t="s">
-        <v>64</v>
+        <v>169</v>
+      </c>
+      <c r="Q211" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
@@ -8489,25 +9094,25 @@
         <v>6</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J213" s="6" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="K213" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M213" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N213" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>55</v>
@@ -8523,55 +9128,55 @@
     </row>
     <row r="214" spans="1:19">
       <c r="A214" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B214" s="17" t="s">
-        <v>13</v>
+        <v>170</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D214" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F214" s="15" t="s">
+      <c r="F214" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G214" s="16" t="s">
+      <c r="G214" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H214" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M214" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="N214" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I214" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J214" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K214" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L214" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M214" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N214" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O214" s="12" t="s">
-        <v>63</v>
+      <c r="O214" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q214" s="12" t="s">
-        <v>64</v>
+        <v>169</v>
+      </c>
+      <c r="Q214" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
@@ -8620,10 +9225,10 @@
         <v>6</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>50</v>
@@ -8632,13 +9237,13 @@
         <v>51</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M216" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N216" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>55</v>
@@ -8654,55 +9259,55 @@
     </row>
     <row r="217" spans="1:19">
       <c r="A217" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B217" s="17" t="s">
-        <v>13</v>
+        <v>171</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D217" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F217" s="15" t="s">
+      <c r="F217" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G217" s="16" t="s">
+      <c r="G217" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K217" s="10" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="K217" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M217" s="19" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="M217" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="N217" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O217" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O217" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q217" s="12" t="s">
-        <v>64</v>
+        <v>173</v>
+      </c>
+      <c r="Q217" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
@@ -8751,25 +9356,25 @@
         <v>6</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I219" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J219" s="6" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M219" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N219" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>55</v>
@@ -8785,55 +9390,55 @@
     </row>
     <row r="220" spans="1:19">
       <c r="A220" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B220" s="17" t="s">
-        <v>13</v>
+        <v>174</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D220" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F220" s="15" t="s">
+      <c r="F220" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G220" s="16" t="s">
+      <c r="G220" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K220" s="10" t="s">
-        <v>139</v>
+        <v>173</v>
+      </c>
+      <c r="K220" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M220" s="19" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="M220" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="N220" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O220" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O220" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q220" s="12" t="s">
-        <v>64</v>
+        <v>173</v>
+      </c>
+      <c r="Q220" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
@@ -8861,19 +9466,19 @@
         <v>6</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K222" s="6" t="s">
         <v>53</v>
       </c>
       <c r="L222" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M222" s="1" t="s">
         <v>55</v>
@@ -8891,49 +9496,49 @@
     </row>
     <row r="223" spans="1:19">
       <c r="A223" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B223" s="17" t="s">
-        <v>13</v>
+        <v>176</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D223" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F223" s="15" t="s">
+      <c r="F223" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G223" s="16" t="s">
+      <c r="G223" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K223" s="19" t="s">
-        <v>105</v>
+        <v>178</v>
+      </c>
+      <c r="K223" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="L223" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M223" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="M223" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O223" s="12" t="s">
-        <v>64</v>
+        <v>178</v>
+      </c>
+      <c r="O223" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
@@ -8963,25 +9568,25 @@
         <v>6</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M225" s="6" t="s">
         <v>53</v>
       </c>
       <c r="N225" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>55</v>
@@ -8999,121 +9604,122 @@
     </row>
     <row r="226" spans="1:19">
       <c r="A226" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B226" s="17" t="s">
-        <v>13</v>
+        <v>181</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D226" s="17" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F226" s="15" t="s">
+      <c r="F226" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G226" s="16" t="s">
+      <c r="G226" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M226" s="19" t="s">
-        <v>105</v>
+        <v>177</v>
+      </c>
+      <c r="M226" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="N226" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O226" s="12" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="O226" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="P226" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q226" s="12" t="s">
-        <v>64</v>
+        <v>178</v>
+      </c>
+      <c r="Q226" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="R226" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="S226" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G17" r:id="rId1" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G20" r:id="rId2" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G14" r:id="rId4" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G2" r:id="rId5" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G5" r:id="rId6" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G8" r:id="rId7" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G11" r:id="rId8" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G23" r:id="rId9" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G187" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G190" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G177" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G179" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G105" r:id="rId17" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G108" r:id="rId18" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G111" r:id="rId19" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G114" r:id="rId20" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G101" r:id="rId21" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G174" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G181" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G184" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G199" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G202" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G205" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G208" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G211" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G214" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G217" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G220" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G117" r:id="rId33" tooltip="mailto:Brac@2020" xr:uid="{77243EE5-8907-4E08-940D-68EA4279F9A5}"/>
-    <hyperlink ref="G120" r:id="rId34" tooltip="mailto:Brac@2020" xr:uid="{C8C4C60B-54F4-4BD0-A5D3-520600C91344}"/>
-    <hyperlink ref="G123" r:id="rId35" tooltip="mailto:Brac@2020" xr:uid="{76C86A6B-2B23-495B-9F72-A99355FEBE3E}"/>
-    <hyperlink ref="G126" r:id="rId36" tooltip="mailto:Brac@2020" xr:uid="{3541CF31-C85B-45C9-A950-24EFD625E42A}"/>
-    <hyperlink ref="G129" r:id="rId37" tooltip="mailto:Brac@2020" xr:uid="{5BAF8836-3D39-49EB-B21A-1543D8DB3227}"/>
-    <hyperlink ref="G132" r:id="rId38" tooltip="mailto:Brac@2020" xr:uid="{EAECF5E7-A60F-4F2A-9953-0766C11071C4}"/>
-    <hyperlink ref="G135" r:id="rId39" tooltip="mailto:Brac@2020" xr:uid="{B05BA98C-E739-4FC1-93CD-694AD2C962D3}"/>
-    <hyperlink ref="G138" r:id="rId40" tooltip="mailto:Brac@2020" xr:uid="{574299AC-EB86-4EEA-8D7C-2028AC8769A3}"/>
-    <hyperlink ref="G98" r:id="rId41" tooltip="mailto:Brac@2020" xr:uid="{1E156B45-93BF-4D21-9230-778435F9FF16}"/>
-    <hyperlink ref="G193" r:id="rId42" xr:uid="{562BA6A0-DEE9-48B1-86F2-4E77E351B463}"/>
-    <hyperlink ref="G196" r:id="rId43" xr:uid="{E3676A39-A247-422E-B893-87237A777C25}"/>
-    <hyperlink ref="G226" r:id="rId44" xr:uid="{E8C98F2B-956A-4E15-A47A-533F5C63470E}"/>
-    <hyperlink ref="G223" r:id="rId45" xr:uid="{5AC42B8F-F410-4BED-A91C-0891433C7855}"/>
-    <hyperlink ref="G171" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G141" r:id="rId47" tooltip="mailto:Brac@2020" xr:uid="{9D73C696-2A9A-4AD1-88BB-4205F76016A0}"/>
-    <hyperlink ref="G144" r:id="rId48" tooltip="mailto:Brac@2020" xr:uid="{7569BC94-A85F-4252-80D7-B53AFA6E4AA4}"/>
-    <hyperlink ref="G148" r:id="rId49" tooltip="mailto:Brac@2020" xr:uid="{F737F2A6-3838-443B-BA43-517CEC241071}"/>
-    <hyperlink ref="G151" r:id="rId50" tooltip="mailto:Brac@2020" xr:uid="{B2FDAA10-B3EC-416F-BD60-13B3FD912DAC}"/>
-    <hyperlink ref="G154" r:id="rId51" tooltip="mailto:Brac@2020" xr:uid="{2F8BA006-6CA5-41C4-8803-83784FE942A6}"/>
-    <hyperlink ref="G157" r:id="rId52" tooltip="mailto:Brac@2020" xr:uid="{C39F865D-44DF-42CC-89B9-12B76515BC39}"/>
-    <hyperlink ref="G160" r:id="rId53" tooltip="mailto:Brac@2020" xr:uid="{84BF6F93-7924-4A33-93EE-9673B3A772F6}"/>
-    <hyperlink ref="G163" r:id="rId54" tooltip="mailto:Brac@2020" xr:uid="{112FA4FE-5F07-4815-9F7F-43BA65B6B5F7}"/>
-    <hyperlink ref="G165" r:id="rId55" tooltip="mailto:Brac@2020" xr:uid="{0A35ABCC-971D-4EF5-9474-C4210624169B}"/>
-    <hyperlink ref="G168" r:id="rId56" tooltip="mailto:Brac@2020" xr:uid="{9F1E92EC-6A9F-4C0C-930C-21A76080BBE3}"/>
+    <hyperlink ref="G17" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G20" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="J20" r:id="rId2" display="test@gmail.com"/>
+    <hyperlink ref="G14" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G2" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G5" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G8" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G11" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G23" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="J23" r:id="rId2" display="test@gmail.com"/>
+    <hyperlink ref="G25" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="L25" r:id="rId2" display="test@gmail.com"/>
+    <hyperlink ref="G187" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G190" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G177" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G179" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G105" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G108" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G111" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G114" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G101" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G174" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G181" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G184" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G199" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G202" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G205" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G208" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G211" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G214" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G217" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G220" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G117" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G120" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G123" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G126" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G129" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G132" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G135" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G138" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G193" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G196" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G226" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G223" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G171" r:id="rId3" display="Brac@2024"/>
+    <hyperlink ref="G141" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G144" r:id="rId4" display="Brac@2023" tooltip="mailto:Brac@2023"/>
+    <hyperlink ref="G148" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G151" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G154" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G157" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G160" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G163" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G165" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G168" r:id="rId1" display="Brac@2023" tooltip="mailto:Brac@2020"/>
+    <hyperlink ref="G98" r:id="rId4" display="Brac@2023"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId57"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/BracTestData.xlsx
+++ b/data/BracTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspacegit\version 2\bracappsep10\bracsepss\bracapp\bracapp26\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71108B84-4820-4028-90E2-893AEE9D1BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E488F84-6903-4611-BFDD-1E955C610ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>uatuser3</t>
   </si>
   <si>
-    <t>Brac@2020</t>
-  </si>
-  <si>
     <t>TC02</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>uatuser1</t>
   </si>
   <si>
-    <t>Brac@2022</t>
-  </si>
-  <si>
     <t>570310054566'</t>
   </si>
   <si>
@@ -563,6 +557,12 @@
   </si>
   <si>
     <t>Wallet Beneficiary</t>
+  </si>
+  <si>
+    <t>Brac@2024</t>
+  </si>
+  <si>
+    <t>Brac@2023</t>
   </si>
 </sst>
 </file>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1100,7 +1100,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -1191,7 +1191,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -1282,7 +1282,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -1373,7 +1373,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -1464,7 +1464,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>13</v>
@@ -1555,7 +1555,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1614,19 +1614,19 @@
         <v>6</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -1656,22 +1656,22 @@
         <v>17</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1725,19 +1725,19 @@
         <v>6</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
@@ -1767,22 +1767,22 @@
         <v>17</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1815,22 +1815,22 @@
         <v>6</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>13</v>
@@ -1856,28 +1856,28 @@
         <v>16</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="K25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="L25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -3400,31 +3400,31 @@
         <v>6</v>
       </c>
       <c r="H97" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I97" s="8" t="s">
+      <c r="K97" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="L97" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K97" s="6" t="s">
+      <c r="M97" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L97" s="6" t="s">
+      <c r="N97" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M97" s="6" t="s">
+      <c r="O97" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N97" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O97" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="P97" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="98" spans="1:19">
       <c r="A98" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>13</v>
@@ -3450,34 +3450,34 @@
         <v>17</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H98" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K98" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I98" s="8" t="s">
+      <c r="L98" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J98" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="K98" s="1" t="s">
+      <c r="M98" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L98" s="11" t="s">
+      <c r="N98" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M98" s="12" t="s">
+      <c r="O98" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P98" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="N98" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O98" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P98" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
@@ -3527,41 +3527,41 @@
         <v>6</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K100" s="1" t="s">
+      <c r="M100" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N100" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="O100" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M100" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N100" s="1" t="s">
+      <c r="P100" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O100" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="Q100" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>13</v>
@@ -3579,37 +3579,37 @@
         <v>17</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I101" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J101" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M101" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N101" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J101" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K101" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L101" s="1" t="s">
+      <c r="O101" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M101" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="N101" s="11" t="s">
+      <c r="P101" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O101" s="1" t="s">
+      <c r="Q101" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -3679,31 +3679,31 @@
         <v>6</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I104" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K104" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="L104" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M104" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M104" s="1" t="s">
+      <c r="N104" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O104" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N104" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P104" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>13</v>
@@ -3729,34 +3729,34 @@
         <v>17</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M105" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O105" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N105" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="P105" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
@@ -3806,31 +3806,31 @@
         <v>6</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I107" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K107" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="L107" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M107" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K107" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M107" s="1" t="s">
+      <c r="N107" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O107" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N107" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P107" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>13</v>
@@ -3856,34 +3856,34 @@
         <v>17</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M108" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O108" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N108" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="P108" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
@@ -3933,31 +3933,31 @@
         <v>6</v>
       </c>
       <c r="H110" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J110" s="1" t="s">
+      <c r="L110" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M110" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K110" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M110" s="1" t="s">
+      <c r="N110" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O110" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N110" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P110" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>13</v>
@@ -3983,34 +3983,34 @@
         <v>17</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H111" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J111" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K111" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J111" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="L111" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M111" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O111" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N111" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="P111" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
@@ -4060,31 +4060,31 @@
         <v>6</v>
       </c>
       <c r="H113" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K113" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J113" s="1" t="s">
+      <c r="L113" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M113" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K113" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M113" s="1" t="s">
+      <c r="N113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O113" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N113" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P113" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>13</v>
@@ -4110,34 +4110,34 @@
         <v>17</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H114" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J114" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K114" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J114" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="L114" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M114" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O114" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N114" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="P114" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
@@ -4187,31 +4187,31 @@
         <v>6</v>
       </c>
       <c r="H116" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J116" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I116" s="8" t="s">
+      <c r="K116" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="L116" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K116" s="6" t="s">
+      <c r="M116" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L116" s="6" t="s">
+      <c r="N116" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M116" s="6" t="s">
+      <c r="O116" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N116" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O116" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="P116" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>13</v>
@@ -4237,34 +4237,34 @@
         <v>17</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I117" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L117" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J117" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L117" s="11" t="s">
+      <c r="M117" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N117" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M117" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N117" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="O117" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P117" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
@@ -4314,31 +4314,31 @@
         <v>6</v>
       </c>
       <c r="H119" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J119" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I119" s="8" t="s">
+      <c r="K119" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="L119" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K119" s="6" t="s">
+      <c r="M119" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L119" s="6" t="s">
+      <c r="N119" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M119" s="6" t="s">
+      <c r="O119" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N119" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O119" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="P119" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>13</v>
@@ -4364,34 +4364,34 @@
         <v>17</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I120" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L120" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J120" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L120" s="11" t="s">
+      <c r="M120" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N120" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M120" s="12" t="s">
+      <c r="O120" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N120" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O120" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="P120" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
@@ -4441,31 +4441,31 @@
         <v>6</v>
       </c>
       <c r="H122" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J122" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I122" s="8" t="s">
+      <c r="K122" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="L122" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K122" s="6" t="s">
+      <c r="M122" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L122" s="6" t="s">
+      <c r="N122" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M122" s="6" t="s">
+      <c r="O122" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N122" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O122" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="P122" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="123" spans="1:19">
       <c r="A123" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>13</v>
@@ -4491,34 +4491,34 @@
         <v>17</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I123" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L123" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J123" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L123" s="11" t="s">
+      <c r="M123" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N123" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M123" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N123" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="O123" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P123" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
@@ -4568,31 +4568,31 @@
         <v>6</v>
       </c>
       <c r="H125" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J125" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I125" s="8" t="s">
+      <c r="K125" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="L125" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K125" s="6" t="s">
+      <c r="M125" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L125" s="6" t="s">
+      <c r="N125" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M125" s="6" t="s">
+      <c r="O125" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N125" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O125" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="P125" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="126" spans="1:19">
       <c r="A126" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>13</v>
@@ -4618,34 +4618,34 @@
         <v>17</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I126" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L126" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L126" s="11" t="s">
+      <c r="M126" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N126" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M126" s="12" t="s">
+      <c r="O126" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N126" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O126" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="P126" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -4695,45 +4695,45 @@
         <v>6</v>
       </c>
       <c r="H128" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J128" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I128" s="8" t="s">
+      <c r="K128" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="L128" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K128" s="6" t="s">
+      <c r="M128" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L128" s="6" t="s">
+      <c r="N128" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M128" s="6" t="s">
+      <c r="O128" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N128" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O128" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="P128" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q128" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R128" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S128" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="R128" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="S128" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="129" spans="1:19">
       <c r="A129" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>13</v>
@@ -4751,43 +4751,43 @@
         <v>17</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I129" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L129" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J129" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L129" s="11" t="s">
+      <c r="M129" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N129" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M129" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N129" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="O129" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P129" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q129" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S129" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="R129" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S129" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -4834,45 +4834,45 @@
         <v>6</v>
       </c>
       <c r="H131" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J131" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I131" s="8" t="s">
+      <c r="K131" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="L131" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K131" s="6" t="s">
+      <c r="M131" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L131" s="6" t="s">
+      <c r="N131" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M131" s="6" t="s">
+      <c r="O131" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N131" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O131" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="P131" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q131" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R131" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S131" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="R131" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="S131" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:19">
       <c r="A132" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>13</v>
@@ -4890,43 +4890,43 @@
         <v>17</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I132" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L132" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J132" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L132" s="11" t="s">
+      <c r="M132" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N132" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M132" s="12" t="s">
+      <c r="O132" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N132" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O132" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="P132" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q132" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S132" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="R132" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S132" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -4973,45 +4973,45 @@
         <v>6</v>
       </c>
       <c r="H134" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J134" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I134" s="8" t="s">
+      <c r="K134" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J134" s="1" t="s">
+      <c r="L134" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K134" s="6" t="s">
+      <c r="M134" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L134" s="6" t="s">
+      <c r="N134" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M134" s="6" t="s">
+      <c r="O134" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="N134" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O134" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="P134" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q134" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R134" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S134" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="R134" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="S134" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:19">
       <c r="A135" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>13</v>
@@ -5029,43 +5029,43 @@
         <v>17</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I135" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L135" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J135" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L135" s="11" t="s">
+      <c r="M135" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N135" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M135" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N135" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="O135" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P135" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q135" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S135" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="R135" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S135" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -5112,45 +5112,45 @@
         <v>6</v>
       </c>
       <c r="H137" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J137" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I137" s="8" t="s">
+      <c r="K137" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="L137" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K137" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L137" s="6" t="s">
+      <c r="M137" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N137" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M137" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="O137" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q137" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R137" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S137" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="R137" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="S137" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="138" spans="1:19">
       <c r="A138" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>13</v>
@@ -5168,43 +5168,43 @@
         <v>17</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I138" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L138" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J138" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L138" s="11" t="s">
+      <c r="M138" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N138" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M138" s="12" t="s">
+      <c r="O138" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N138" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O138" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="P138" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q138" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S138" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="R138" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S138" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -5251,41 +5251,41 @@
         <v>6</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J140" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L140" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K140" s="1" t="s">
+      <c r="M140" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L140" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M140" s="6" t="s">
+      <c r="N140" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O140" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N140" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O140" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P140" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
     </row>
     <row r="141" spans="1:19">
       <c r="A141" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>13</v>
@@ -5303,37 +5303,37 @@
         <v>17</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J141" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M141" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K141" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M141" s="11" t="s">
+      <c r="N141" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O141" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N141" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O141" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="P141" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q141" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
@@ -5382,41 +5382,41 @@
         <v>6</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I143" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L143" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J143" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K143" s="1" t="s">
+      <c r="M143" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L143" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M143" s="6" t="s">
+      <c r="N143" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O143" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N143" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O143" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P143" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
     </row>
     <row r="144" spans="1:19">
       <c r="A144" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>13</v>
@@ -5434,37 +5434,37 @@
         <v>17</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I144" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M144" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J144" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K144" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L144" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M144" s="11" t="s">
+      <c r="N144" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O144" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N144" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O144" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="P144" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q144" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
@@ -5534,41 +5534,41 @@
         <v>6</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J147" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L147" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K147" s="1" t="s">
+      <c r="M147" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L147" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M147" s="6" t="s">
+      <c r="N147" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O147" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N147" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O147" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P147" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
     </row>
     <row r="148" spans="1:19">
       <c r="A148" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>13</v>
@@ -5586,37 +5586,37 @@
         <v>17</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J148" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M148" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K148" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L148" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M148" s="11" t="s">
+      <c r="N148" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O148" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N148" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O148" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="P148" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q148" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
@@ -5665,41 +5665,41 @@
         <v>6</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I150" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L150" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J150" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K150" s="1" t="s">
+      <c r="M150" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L150" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M150" s="6" t="s">
+      <c r="N150" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O150" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N150" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O150" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P150" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
     </row>
     <row r="151" spans="1:19">
       <c r="A151" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>13</v>
@@ -5717,37 +5717,37 @@
         <v>17</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I151" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M151" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J151" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M151" s="11" t="s">
+      <c r="N151" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O151" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N151" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O151" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="P151" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q151" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
@@ -5796,41 +5796,41 @@
         <v>6</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J153" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L153" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K153" s="1" t="s">
+      <c r="M153" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L153" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M153" s="6" t="s">
+      <c r="N153" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O153" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N153" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O153" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P153" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q153" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
     </row>
     <row r="154" spans="1:19">
       <c r="A154" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>13</v>
@@ -5848,37 +5848,37 @@
         <v>17</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J154" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M154" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K154" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L154" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M154" s="11" t="s">
+      <c r="N154" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O154" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N154" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O154" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="P154" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q154" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
@@ -5927,41 +5927,41 @@
         <v>6</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I156" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L156" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J156" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K156" s="1" t="s">
+      <c r="M156" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L156" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M156" s="6" t="s">
+      <c r="N156" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O156" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N156" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O156" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P156" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
     </row>
     <row r="157" spans="1:19">
       <c r="A157" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>13</v>
@@ -5979,37 +5979,37 @@
         <v>17</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I157" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M157" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J157" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M157" s="11" t="s">
+      <c r="N157" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O157" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N157" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O157" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="P157" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q157" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
@@ -6058,41 +6058,41 @@
         <v>6</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J159" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L159" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K159" s="1" t="s">
+      <c r="M159" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L159" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M159" s="6" t="s">
+      <c r="N159" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O159" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N159" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O159" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P159" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
     </row>
     <row r="160" spans="1:19">
       <c r="A160" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>13</v>
@@ -6110,37 +6110,37 @@
         <v>17</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J160" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M160" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K160" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M160" s="11" t="s">
+      <c r="N160" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O160" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N160" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O160" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="P160" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q160" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
@@ -6184,43 +6184,43 @@
         <v>6</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I162" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M162" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J162" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K162" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L162" s="1" t="s">
+      <c r="N162" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M162" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N162" s="6" t="s">
+      <c r="O162" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P162" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O162" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P162" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="Q162" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R162" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S162" s="1"/>
     </row>
     <row r="163" spans="1:19">
       <c r="A163" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>13</v>
@@ -6238,40 +6238,40 @@
         <v>17</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I163" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N163" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J163" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K163" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L163" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M163" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N163" s="11" t="s">
+      <c r="O163" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="P163" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="O163" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="P163" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="Q163" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R163" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S163" s="1"/>
     </row>
@@ -6298,40 +6298,40 @@
         <v>6</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J164" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L164" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K164" s="1" t="s">
+      <c r="M164" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L164" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M164" s="6" t="s">
+      <c r="N164" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O164" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N164" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O164" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P164" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q164" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S164" s="1"/>
     </row>
     <row r="165" spans="1:19">
       <c r="A165" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>13</v>
@@ -6349,37 +6349,37 @@
         <v>17</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I165" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J165" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M165" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N165" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="J165" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K165" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L165" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M165" s="11" t="s">
+      <c r="O165" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N165" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O165" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="P165" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q165" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S165" s="1"/>
     </row>
@@ -6427,41 +6427,41 @@
         <v>6</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I167" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L167" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J167" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K167" s="1" t="s">
+      <c r="M167" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L167" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M167" s="6" t="s">
+      <c r="N167" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O167" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N167" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O167" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P167" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
     </row>
     <row r="168" spans="1:19">
       <c r="A168" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>13</v>
@@ -6479,37 +6479,37 @@
         <v>17</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I168" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M168" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J168" s="1" t="s">
+      <c r="N168" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="K168" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L168" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M168" s="11" t="s">
+      <c r="O168" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N168" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O168" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="P168" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q168" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
@@ -6558,41 +6558,41 @@
         <v>6</v>
       </c>
       <c r="H170" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L170" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I170" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K170" s="1" t="s">
+      <c r="M170" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L170" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M170" s="6" t="s">
+      <c r="N170" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O170" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N170" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O170" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P170" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q170" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
     </row>
     <row r="171" spans="1:19">
       <c r="A171" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>13</v>
@@ -6607,40 +6607,40 @@
         <v>16</v>
       </c>
       <c r="F171" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H171" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J171" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I171" s="1" t="s">
+      <c r="K171" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L171" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J171" s="1" t="s">
+      <c r="M171" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="K171" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L171" s="1" t="s">
+      <c r="N171" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M171" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N171" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="O171" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P171" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q171" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
@@ -6689,41 +6689,41 @@
         <v>6</v>
       </c>
       <c r="H173" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I173" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J173" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K173" s="1" t="s">
+      <c r="M173" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L173" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M173" s="6" t="s">
+      <c r="N173" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O173" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N173" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O173" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P173" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q173" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
     </row>
     <row r="174" spans="1:19">
       <c r="A174" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>13</v>
@@ -6738,40 +6738,40 @@
         <v>16</v>
       </c>
       <c r="F174" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G174" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H174" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I174" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="J174" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K174" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M174" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="J174" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K174" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M174" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="N174" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="O174" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q174" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
@@ -6820,41 +6820,41 @@
         <v>6</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M176" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L176" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M176" s="6" t="s">
+      <c r="N176" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O176" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N176" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O176" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P176" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q176" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
     </row>
     <row r="177" spans="1:19">
       <c r="A177" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>13</v>
@@ -6869,40 +6869,40 @@
         <v>16</v>
       </c>
       <c r="F177" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H177" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L177" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I177" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J177" s="1" t="s">
+      <c r="M177" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="K177" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L177" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M177" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="N177" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O177" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q177" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
@@ -6930,41 +6930,41 @@
         <v>6</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M178" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L178" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M178" s="6" t="s">
+      <c r="N178" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O178" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N178" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O178" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P178" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q178" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
     </row>
     <row r="179" spans="1:19">
       <c r="A179" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>13</v>
@@ -6979,40 +6979,40 @@
         <v>16</v>
       </c>
       <c r="F179" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H179" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L179" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I179" s="1" t="s">
+      <c r="M179" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J179" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K179" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L179" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M179" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="N179" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O179" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q179" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
@@ -7040,41 +7040,41 @@
         <v>6</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M180" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L180" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M180" s="6" t="s">
+      <c r="N180" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O180" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N180" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O180" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P180" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q180" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
     </row>
     <row r="181" spans="1:19">
       <c r="A181" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>13</v>
@@ -7089,40 +7089,40 @@
         <v>16</v>
       </c>
       <c r="F181" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J181" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L181" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M181" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="K181" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L181" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M181" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="N181" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O181" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q181" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
@@ -7171,41 +7171,41 @@
         <v>6</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M183" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L183" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M183" s="6" t="s">
+      <c r="N183" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O183" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N183" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O183" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P183" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q183" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
     </row>
     <row r="184" spans="1:19">
       <c r="A184" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>13</v>
@@ -7220,40 +7220,40 @@
         <v>16</v>
       </c>
       <c r="F184" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G184" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I184" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L184" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M184" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J184" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K184" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L184" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M184" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="N184" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O184" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q184" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
@@ -7302,41 +7302,41 @@
         <v>6</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M186" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L186" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M186" s="6" t="s">
+      <c r="N186" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O186" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N186" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O186" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P186" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q186" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
     </row>
     <row r="187" spans="1:19">
       <c r="A187" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>13</v>
@@ -7351,40 +7351,40 @@
         <v>16</v>
       </c>
       <c r="F187" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J187" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L187" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M187" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="K187" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L187" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M187" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="N187" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O187" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q187" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
@@ -7433,41 +7433,41 @@
         <v>6</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M189" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L189" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M189" s="6" t="s">
+      <c r="N189" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O189" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N189" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O189" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P189" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q189" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
     </row>
     <row r="190" spans="1:19">
       <c r="A190" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>13</v>
@@ -7482,40 +7482,40 @@
         <v>16</v>
       </c>
       <c r="F190" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G190" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I190" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L190" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M190" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J190" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K190" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L190" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M190" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="N190" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O190" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q190" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
@@ -7564,41 +7564,41 @@
         <v>6</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M192" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L192" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M192" s="6" t="s">
+      <c r="N192" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O192" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N192" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O192" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P192" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q192" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
     </row>
     <row r="193" spans="1:19">
       <c r="A193" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>13</v>
@@ -7613,40 +7613,40 @@
         <v>16</v>
       </c>
       <c r="F193" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G193" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J193" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L193" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M193" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="K193" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L193" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M193" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="N193" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O193" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q193" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
@@ -7695,45 +7695,45 @@
         <v>6</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J195" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M195" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L195" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M195" s="6" t="s">
+      <c r="N195" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O195" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N195" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O195" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P195" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q195" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R195" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S195" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196" spans="1:19">
       <c r="A196" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>13</v>
@@ -7748,46 +7748,46 @@
         <v>16</v>
       </c>
       <c r="F196" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G196" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I196" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L196" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M196" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J196" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K196" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L196" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M196" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="N196" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O196" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q196" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R196" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="S196" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="197" spans="1:19">
@@ -7834,41 +7834,41 @@
         <v>6</v>
       </c>
       <c r="H198" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I198" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J198" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K198" s="1" t="s">
+      <c r="M198" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L198" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M198" s="6" t="s">
+      <c r="N198" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O198" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N198" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O198" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P198" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q198" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
     </row>
     <row r="199" spans="1:19">
       <c r="A199" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B199" s="17" t="s">
         <v>13</v>
@@ -7883,40 +7883,40 @@
         <v>16</v>
       </c>
       <c r="F199" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G199" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J199" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K199" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M199" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="K199" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M199" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N199" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="O199" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q199" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
@@ -7965,41 +7965,41 @@
         <v>6</v>
       </c>
       <c r="H201" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J201" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I201" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J201" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K201" s="1" t="s">
+      <c r="M201" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L201" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M201" s="6" t="s">
+      <c r="N201" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O201" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N201" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O201" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P201" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q201" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
     </row>
     <row r="202" spans="1:19">
       <c r="A202" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B202" s="17" t="s">
         <v>13</v>
@@ -8014,40 +8014,40 @@
         <v>16</v>
       </c>
       <c r="F202" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I202" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K202" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M202" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J202" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K202" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M202" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N202" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="O202" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q202" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
@@ -8096,41 +8096,41 @@
         <v>6</v>
       </c>
       <c r="H204" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I204" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I204" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J204" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K204" s="1" t="s">
+      <c r="M204" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L204" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M204" s="6" t="s">
+      <c r="N204" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O204" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N204" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O204" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P204" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q204" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
     </row>
     <row r="205" spans="1:19">
       <c r="A205" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B205" s="17" t="s">
         <v>13</v>
@@ -8145,40 +8145,40 @@
         <v>16</v>
       </c>
       <c r="F205" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G205" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J205" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K205" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M205" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="K205" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M205" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N205" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="O205" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q205" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
@@ -8227,41 +8227,41 @@
         <v>6</v>
       </c>
       <c r="H207" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I207" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J207" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K207" s="1" t="s">
+      <c r="M207" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L207" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M207" s="6" t="s">
+      <c r="N207" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O207" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N207" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O207" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P207" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q207" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
     </row>
     <row r="208" spans="1:19">
       <c r="A208" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B208" s="17" t="s">
         <v>13</v>
@@ -8276,40 +8276,40 @@
         <v>16</v>
       </c>
       <c r="F208" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G208" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I208" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K208" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M208" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J208" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K208" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M208" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N208" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="O208" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q208" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
@@ -8358,41 +8358,41 @@
         <v>6</v>
       </c>
       <c r="H210" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I210" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I210" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J210" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K210" s="1" t="s">
+      <c r="M210" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L210" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M210" s="6" t="s">
+      <c r="N210" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O210" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N210" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O210" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P210" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q210" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
     </row>
     <row r="211" spans="1:19">
       <c r="A211" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B211" s="17" t="s">
         <v>13</v>
@@ -8407,40 +8407,40 @@
         <v>16</v>
       </c>
       <c r="F211" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G211" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J211" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M211" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="K211" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M211" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N211" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="O211" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P211" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q211" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
@@ -8489,41 +8489,41 @@
         <v>6</v>
       </c>
       <c r="H213" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J213" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I213" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J213" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K213" s="1" t="s">
+      <c r="M213" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L213" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M213" s="6" t="s">
+      <c r="N213" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O213" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N213" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O213" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P213" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q213" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
     </row>
     <row r="214" spans="1:19">
       <c r="A214" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B214" s="17" t="s">
         <v>13</v>
@@ -8538,40 +8538,40 @@
         <v>16</v>
       </c>
       <c r="F214" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G214" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I214" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M214" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J214" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K214" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M214" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N214" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="O214" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q214" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
@@ -8620,41 +8620,41 @@
         <v>6</v>
       </c>
       <c r="H216" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I216" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J216" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K216" s="1" t="s">
+      <c r="M216" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L216" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M216" s="6" t="s">
+      <c r="N216" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O216" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N216" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O216" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P216" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
     </row>
     <row r="217" spans="1:19">
       <c r="A217" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B217" s="17" t="s">
         <v>13</v>
@@ -8669,40 +8669,40 @@
         <v>16</v>
       </c>
       <c r="F217" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G217" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H217" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K217" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I217" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J217" s="1" t="s">
+      <c r="L217" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M217" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="K217" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M217" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N217" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="O217" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q217" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
@@ -8751,41 +8751,41 @@
         <v>6</v>
       </c>
       <c r="H219" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J219" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I219" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J219" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K219" s="1" t="s">
+      <c r="M219" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L219" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M219" s="6" t="s">
+      <c r="N219" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O219" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N219" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O219" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P219" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q219" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
     </row>
     <row r="220" spans="1:19">
       <c r="A220" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B220" s="17" t="s">
         <v>13</v>
@@ -8800,40 +8800,40 @@
         <v>16</v>
       </c>
       <c r="F220" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G220" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H220" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K220" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I220" s="1" t="s">
+      <c r="L220" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M220" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J220" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K220" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M220" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N220" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="O220" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q220" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
@@ -8861,28 +8861,28 @@
         <v>6</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K222" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L222" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M222" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L222" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M222" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="N222" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O222" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
@@ -8891,7 +8891,7 @@
     </row>
     <row r="223" spans="1:19">
       <c r="A223" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B223" s="17" t="s">
         <v>13</v>
@@ -8906,34 +8906,34 @@
         <v>16</v>
       </c>
       <c r="F223" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G223" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H223" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J223" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I223" s="1" t="s">
+      <c r="K223" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J223" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K223" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="L223" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M223" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O223" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
@@ -8963,43 +8963,43 @@
         <v>6</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M225" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N225" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O225" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N225" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O225" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P225" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q225" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R225" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S225" s="1"/>
     </row>
     <row r="226" spans="1:19">
       <c r="A226" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B226" s="17" t="s">
         <v>13</v>
@@ -9014,104 +9014,104 @@
         <v>16</v>
       </c>
       <c r="F226" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G226" s="16" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="H226" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J226" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I226" s="1" t="s">
+      <c r="K226" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M226" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J226" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K226" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O226" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P226" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M226" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="N226" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O226" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="P226" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q226" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R226" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S226" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G17" r:id="rId1" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G20" r:id="rId2" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G17" r:id="rId1" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G20" r:id="rId2" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="J20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G14" r:id="rId4" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G2" r:id="rId5" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G5" r:id="rId6" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G8" r:id="rId7" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G11" r:id="rId8" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G23" r:id="rId9" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G14" r:id="rId4" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G2" r:id="rId5" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G5" r:id="rId6" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G11" r:id="rId8" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G23" r:id="rId9" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="J23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G25" r:id="rId11" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="L25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G187" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G190" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G177" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G179" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G105" r:id="rId17" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G108" r:id="rId18" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G111" r:id="rId19" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G114" r:id="rId20" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G101" r:id="rId21" tooltip="mailto:Brac@2020" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G174" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G181" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G184" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G199" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G202" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G205" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G208" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G211" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G214" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G217" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G220" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G117" r:id="rId33" tooltip="mailto:Brac@2020" xr:uid="{77243EE5-8907-4E08-940D-68EA4279F9A5}"/>
-    <hyperlink ref="G120" r:id="rId34" tooltip="mailto:Brac@2020" xr:uid="{C8C4C60B-54F4-4BD0-A5D3-520600C91344}"/>
-    <hyperlink ref="G123" r:id="rId35" tooltip="mailto:Brac@2020" xr:uid="{76C86A6B-2B23-495B-9F72-A99355FEBE3E}"/>
-    <hyperlink ref="G126" r:id="rId36" tooltip="mailto:Brac@2020" xr:uid="{3541CF31-C85B-45C9-A950-24EFD625E42A}"/>
-    <hyperlink ref="G129" r:id="rId37" tooltip="mailto:Brac@2020" xr:uid="{5BAF8836-3D39-49EB-B21A-1543D8DB3227}"/>
-    <hyperlink ref="G132" r:id="rId38" tooltip="mailto:Brac@2020" xr:uid="{EAECF5E7-A60F-4F2A-9953-0766C11071C4}"/>
-    <hyperlink ref="G135" r:id="rId39" tooltip="mailto:Brac@2020" xr:uid="{B05BA98C-E739-4FC1-93CD-694AD2C962D3}"/>
-    <hyperlink ref="G138" r:id="rId40" tooltip="mailto:Brac@2020" xr:uid="{574299AC-EB86-4EEA-8D7C-2028AC8769A3}"/>
-    <hyperlink ref="G98" r:id="rId41" tooltip="mailto:Brac@2020" xr:uid="{1E156B45-93BF-4D21-9230-778435F9FF16}"/>
-    <hyperlink ref="G193" r:id="rId42" xr:uid="{562BA6A0-DEE9-48B1-86F2-4E77E351B463}"/>
-    <hyperlink ref="G196" r:id="rId43" xr:uid="{E3676A39-A247-422E-B893-87237A777C25}"/>
-    <hyperlink ref="G226" r:id="rId44" xr:uid="{E8C98F2B-956A-4E15-A47A-533F5C63470E}"/>
-    <hyperlink ref="G223" r:id="rId45" xr:uid="{5AC42B8F-F410-4BED-A91C-0891433C7855}"/>
-    <hyperlink ref="G171" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G141" r:id="rId47" tooltip="mailto:Brac@2020" xr:uid="{9D73C696-2A9A-4AD1-88BB-4205F76016A0}"/>
-    <hyperlink ref="G144" r:id="rId48" tooltip="mailto:Brac@2020" xr:uid="{7569BC94-A85F-4252-80D7-B53AFA6E4AA4}"/>
-    <hyperlink ref="G148" r:id="rId49" tooltip="mailto:Brac@2020" xr:uid="{F737F2A6-3838-443B-BA43-517CEC241071}"/>
-    <hyperlink ref="G151" r:id="rId50" tooltip="mailto:Brac@2020" xr:uid="{B2FDAA10-B3EC-416F-BD60-13B3FD912DAC}"/>
-    <hyperlink ref="G154" r:id="rId51" tooltip="mailto:Brac@2020" xr:uid="{2F8BA006-6CA5-41C4-8803-83784FE942A6}"/>
-    <hyperlink ref="G157" r:id="rId52" tooltip="mailto:Brac@2020" xr:uid="{C39F865D-44DF-42CC-89B9-12B76515BC39}"/>
-    <hyperlink ref="G160" r:id="rId53" tooltip="mailto:Brac@2020" xr:uid="{84BF6F93-7924-4A33-93EE-9673B3A772F6}"/>
-    <hyperlink ref="G163" r:id="rId54" tooltip="mailto:Brac@2020" xr:uid="{112FA4FE-5F07-4815-9F7F-43BA65B6B5F7}"/>
-    <hyperlink ref="G165" r:id="rId55" tooltip="mailto:Brac@2020" xr:uid="{0A35ABCC-971D-4EF5-9474-C4210624169B}"/>
-    <hyperlink ref="G168" r:id="rId56" tooltip="mailto:Brac@2020" xr:uid="{9F1E92EC-6A9F-4C0C-930C-21A76080BBE3}"/>
+    <hyperlink ref="G187" r:id="rId13" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G190" r:id="rId14" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G177" r:id="rId15" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G179" r:id="rId16" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G105" r:id="rId17" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G108" r:id="rId18" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G111" r:id="rId19" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G114" r:id="rId20" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G101" r:id="rId21" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G174" r:id="rId22" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G181" r:id="rId23" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G184" r:id="rId24" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G199" r:id="rId25" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G202" r:id="rId26" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G205" r:id="rId27" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G208" r:id="rId28" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G211" r:id="rId29" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G214" r:id="rId30" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G217" r:id="rId31" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G220" r:id="rId32" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G117" r:id="rId33" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{77243EE5-8907-4E08-940D-68EA4279F9A5}"/>
+    <hyperlink ref="G120" r:id="rId34" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{C8C4C60B-54F4-4BD0-A5D3-520600C91344}"/>
+    <hyperlink ref="G123" r:id="rId35" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{76C86A6B-2B23-495B-9F72-A99355FEBE3E}"/>
+    <hyperlink ref="G126" r:id="rId36" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{3541CF31-C85B-45C9-A950-24EFD625E42A}"/>
+    <hyperlink ref="G129" r:id="rId37" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{5BAF8836-3D39-49EB-B21A-1543D8DB3227}"/>
+    <hyperlink ref="G132" r:id="rId38" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{EAECF5E7-A60F-4F2A-9953-0766C11071C4}"/>
+    <hyperlink ref="G135" r:id="rId39" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{B05BA98C-E739-4FC1-93CD-694AD2C962D3}"/>
+    <hyperlink ref="G138" r:id="rId40" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{574299AC-EB86-4EEA-8D7C-2028AC8769A3}"/>
+    <hyperlink ref="G98" r:id="rId41" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{1E156B45-93BF-4D21-9230-778435F9FF16}"/>
+    <hyperlink ref="G193" r:id="rId42" display="Brac@2022" xr:uid="{562BA6A0-DEE9-48B1-86F2-4E77E351B463}"/>
+    <hyperlink ref="G196" r:id="rId43" display="Brac@2022" xr:uid="{E3676A39-A247-422E-B893-87237A777C25}"/>
+    <hyperlink ref="G226" r:id="rId44" display="Brac@2022" xr:uid="{E8C98F2B-956A-4E15-A47A-533F5C63470E}"/>
+    <hyperlink ref="G223" r:id="rId45" display="Brac@2022" xr:uid="{5AC42B8F-F410-4BED-A91C-0891433C7855}"/>
+    <hyperlink ref="G171" r:id="rId46" display="Brac@2022" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G141" r:id="rId47" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{9D73C696-2A9A-4AD1-88BB-4205F76016A0}"/>
+    <hyperlink ref="G144" r:id="rId48" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{7569BC94-A85F-4252-80D7-B53AFA6E4AA4}"/>
+    <hyperlink ref="G148" r:id="rId49" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{F737F2A6-3838-443B-BA43-517CEC241071}"/>
+    <hyperlink ref="G151" r:id="rId50" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{B2FDAA10-B3EC-416F-BD60-13B3FD912DAC}"/>
+    <hyperlink ref="G157" r:id="rId51" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{C39F865D-44DF-42CC-89B9-12B76515BC39}"/>
+    <hyperlink ref="G160" r:id="rId52" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{84BF6F93-7924-4A33-93EE-9673B3A772F6}"/>
+    <hyperlink ref="G163" r:id="rId53" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{112FA4FE-5F07-4815-9F7F-43BA65B6B5F7}"/>
+    <hyperlink ref="G165" r:id="rId54" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{0A35ABCC-971D-4EF5-9474-C4210624169B}"/>
+    <hyperlink ref="G168" r:id="rId55" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{9F1E92EC-6A9F-4C0C-930C-21A76080BBE3}"/>
+    <hyperlink ref="G154" r:id="rId56" tooltip="mailto:Brac@2020" display="Brac@2020" xr:uid="{A472A135-9D41-49CD-B217-E256D0E46650}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId57"/>
